--- a/wristband/v7/adi_v3_1ADC.xlsx
+++ b/wristband/v7/adi_v3_1ADC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\wristband\v7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E869A4B5-E979-4940-932B-9B18603872ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D1533-CC74-4BB3-BB75-7D8A69DBB3E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -4671,7 +4671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -5067,8 +5067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
